--- a/data/trans_dic/P28$otro_2012-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P28$otro_2012-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,5; 11,97</t>
+          <t>7,44; 11,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,93; 10,21</t>
+          <t>5,97; 10,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,34; 10,45</t>
+          <t>7,16; 10,35</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,93; 13,26</t>
+          <t>8,75; 12,92</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,26; 9,95</t>
+          <t>6,21; 9,96</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,11; 10,77</t>
+          <t>7,97; 10,88</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,3; 11,72</t>
+          <t>7,16; 11,5</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,39; 11,85</t>
+          <t>7,24; 11,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,78; 10,85</t>
+          <t>7,72; 10,89</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,4; 13,83</t>
+          <t>9,36; 13,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,42; 10,92</t>
+          <t>7,55; 11,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,89; 11,76</t>
+          <t>8,86; 11,69</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>9,18; 11,55</t>
+          <t>9,32; 11,55</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,62; 9,66</t>
+          <t>7,57; 9,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,74; 10,2</t>
+          <t>8,75; 10,23</t>
         </is>
       </c>
     </row>
@@ -811,4 +812,462 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que, al menos, fumaba otra persona diferente a sus padres en el ambiente donde se crió</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>64902</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>52684</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>117586</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>50643; 80779</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>39870; 68564</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>96559; 139546</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>106198</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>77971</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>184169</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>85924; 126925</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>60797; 97554</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>156299; 213457</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>66839</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>70523</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>137362</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>52077; 83665</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>54514; 88710</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>114351; 161352</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>103661</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>90801</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>194462</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>84870; 125820</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>75209; 110769</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>168556; 222475</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>592</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>341600</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>291979</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>633579</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>307296; 380854</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>257218; 324934</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>585446; 685114</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>